--- a/biology/Zoologie/Excelsotarsonemus_kaliszewskii/Excelsotarsonemus_kaliszewskii.xlsx
+++ b/biology/Zoologie/Excelsotarsonemus_kaliszewskii/Excelsotarsonemus_kaliszewskii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Excelsotarsonemus kaliszewskii est une espèce d'acariens de la famille des Tarsonemidae[1]. C'est l'espèce type de son genre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Excelsotarsonemus kaliszewskii est une espèce d'acariens de la famille des Tarsonemidae. C'est l'espèce type de son genre.
 L'espèce est trouvée au Costa Rica.
 Le nom d'espèce rend hommage à l'acarologue polonais Marek Kaliszewski (-1992).
 </t>
@@ -513,7 +525,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Ronald Ochoa, Piotr Naskrecki et Robert K. Colwell, « Excelsotarsonemus kaliszewskii, a new genus and new species from Costa Rica (Acari: Tarsonemidae) », International Journal of Acarology, Taylor &amp; Francis, vol. 21, no 2,‎ juin 1995, p. 67-74 (ISSN 0164-7954 et 1945-3892, OCLC 03357196, DOI 10.1080/01647959508684045)</t>
         </is>
